--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_attr5.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_attr5.xlsx
@@ -37,37 +37,37 @@
     <t>age</t>
   </si>
   <si>
-    <t>insulin</t>
+    <t>diabetesmed</t>
   </si>
   <si>
     <t>a1cresult</t>
   </si>
   <si>
-    <t>max_glu_serum</t>
+    <t>change</t>
   </si>
   <si>
-    <t>diabetesmed</t>
+    <t>admission_source_id</t>
+  </si>
+  <si>
+    <t>diag_1</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>insulin</t>
   </si>
   <si>
     <t>gender</t>
   </si>
   <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t>change</t>
+    <t>max_glu_serum</t>
   </si>
   <si>
     <t>discharge_disposition_id</t>
   </si>
   <si>
     <t>admission_type_id</t>
-  </si>
-  <si>
-    <t>admission_source_id</t>
-  </si>
-  <si>
-    <t>diag_1</t>
   </si>
   <si>
     <t>number_emergency</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.328691176641764</v>
+        <v>1.305318629005046</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -515,7 +515,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1.321913526515566</v>
+        <v>1.297237615862483</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -532,7 +532,7 @@
         <v>27</v>
       </c>
       <c r="E4">
-        <v>1.291573240268463</v>
+        <v>1.257744371466159</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -549,7 +549,7 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1.285129723283887</v>
+        <v>1.241409024653609</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -566,7 +566,7 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1.242118006816238</v>
+        <v>1.195228609334394</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -577,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <v>1.23481851797162</v>
+        <v>1.185325684204344</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -594,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1.23175057103412</v>
+        <v>1.178910729646047</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -611,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1.231643010474519</v>
+        <v>1.170038204112555</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -628,13 +628,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1.22939494702398</v>
+        <v>1.164824007969451</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -645,13 +645,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1.224744871391589</v>
+        <v>1.164667046888427</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -662,13 +662,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12">
-        <v>1.224744871391589</v>
+        <v>1.163613986228807</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -679,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>1.224744871391589</v>
+        <v>1.161676980219609</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -702,7 +702,7 @@
         <v>27</v>
       </c>
       <c r="E14">
-        <v>1.22144810936485</v>
+        <v>1.161394510621746</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -713,13 +713,13 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>1.220394076570212</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -730,13 +730,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
-        <v>1.21736075717708</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1.210988012547138</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>1.210180803879228</v>
+        <v>1.145881092548817</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>1.190483653100148</v>
+        <v>1.13286166967929</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>1.13421256914739</v>
+        <v>1.097274029906733</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -821,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>1.034164885222528</v>
+        <v>0.9825372751600916</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -838,7 +838,7 @@
         <v>28</v>
       </c>
       <c r="E22">
-        <v>1.030995021427364</v>
+        <v>0.9787096827705548</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -855,7 +855,7 @@
         <v>28</v>
       </c>
       <c r="E23">
-        <v>1.029596357460667</v>
+        <v>0.9767654022322548</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -872,7 +872,7 @@
         <v>28</v>
       </c>
       <c r="E24">
-        <v>1.026999531636932</v>
+        <v>0.9744180604332567</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -889,7 +889,7 @@
         <v>29</v>
       </c>
       <c r="E25">
-        <v>1.019413403796078</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -906,7 +906,7 @@
         <v>29</v>
       </c>
       <c r="E26">
-        <v>1.019413403796078</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -923,7 +923,7 @@
         <v>29</v>
       </c>
       <c r="E27">
-        <v>1.019413403796078</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -940,7 +940,7 @@
         <v>29</v>
       </c>
       <c r="E28">
-        <v>1.019413403796078</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -957,7 +957,7 @@
         <v>29</v>
       </c>
       <c r="E29">
-        <v>1.019413403796078</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -974,7 +974,7 @@
         <v>29</v>
       </c>
       <c r="E30">
-        <v>1.019413403796078</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -991,7 +991,7 @@
         <v>29</v>
       </c>
       <c r="E31">
-        <v>1.019413403796078</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1008,7 +1008,7 @@
         <v>29</v>
       </c>
       <c r="E32">
-        <v>1.019413403796078</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1025,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="E33">
-        <v>0.9940779038327697</v>
+        <v>0.9351842687032762</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1042,7 +1042,7 @@
         <v>27</v>
       </c>
       <c r="E34">
-        <v>0.7666951951784434</v>
+        <v>0.8088371020855512</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1059,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="E35">
-        <v>0.6773588071770489</v>
+        <v>0.7290639637163614</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1076,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="E36">
-        <v>0.6367673333454853</v>
+        <v>0.7278069595002714</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1084,16 +1084,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E37">
-        <v>0.6023029165791187</v>
+        <v>0.7181662322805961</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1101,7 +1101,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -1110,7 +1110,7 @@
         <v>27</v>
       </c>
       <c r="E38">
-        <v>0.5824249596307287</v>
+        <v>0.7024075013036065</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1118,7 +1118,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         <v>27</v>
       </c>
       <c r="E39">
-        <v>0.5730635448918544</v>
+        <v>0.6973261333577971</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1135,16 +1135,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
       </c>
       <c r="E40">
-        <v>0.5726840108333652</v>
+        <v>0.6919187095318641</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1152,16 +1152,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
       </c>
       <c r="E41">
-        <v>0.5632402415193308</v>
+        <v>0.6450597731586367</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1169,16 +1169,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
         <v>27</v>
       </c>
       <c r="E42">
-        <v>0.5586387873089286</v>
+        <v>0.5827512312245546</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1186,16 +1186,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E43">
-        <v>0.5538283078090832</v>
+        <v>0.573945786377494</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1203,7 +1203,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
         <v>20</v>
@@ -1212,7 +1212,7 @@
         <v>27</v>
       </c>
       <c r="E44">
-        <v>0.5502184310608632</v>
+        <v>0.56523618021456</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1223,13 +1223,13 @@
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
         <v>27</v>
       </c>
       <c r="E45">
-        <v>0.5418450508340005</v>
+        <v>0.5540409064020911</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,16 +1237,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E46">
-        <v>0.5162256571066535</v>
+        <v>0.5533381192959471</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1257,13 +1257,13 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
         <v>27</v>
       </c>
       <c r="E47">
-        <v>0.5124587610363569</v>
+        <v>0.5389219200323748</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1271,16 +1271,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
       </c>
       <c r="E48">
-        <v>0.5080976926793925</v>
+        <v>0.5255382728122435</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,7 +1288,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
         <v>20</v>
@@ -1297,7 +1297,7 @@
         <v>27</v>
       </c>
       <c r="E49">
-        <v>0.5066403971048989</v>
+        <v>0.5238673143872909</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1305,16 +1305,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
         <v>27</v>
       </c>
       <c r="E50">
-        <v>0.5049452934247152</v>
+        <v>0.5229744253647617</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1322,16 +1322,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E51">
-        <v>0.4879500364742667</v>
+        <v>0.5208964573038029</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1339,16 +1339,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
       </c>
       <c r="E52">
-        <v>0.4837158090011483</v>
+        <v>0.5175653679753228</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1356,16 +1356,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
         <v>27</v>
       </c>
       <c r="E53">
-        <v>0.4764869471456251</v>
+        <v>0.515243816533678</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,16 +1373,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
         <v>27</v>
       </c>
       <c r="E54">
-        <v>0.4763210266512571</v>
+        <v>0.512708070169947</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
         <v>27</v>
       </c>
       <c r="E55">
-        <v>0.4423445410639975</v>
+        <v>0.5109117095302407</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,7 +1407,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
         <v>20</v>
@@ -1416,7 +1416,7 @@
         <v>27</v>
       </c>
       <c r="E56">
-        <v>0.4407812345451211</v>
+        <v>0.4950866806752207</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,16 +1424,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D57" t="s">
         <v>27</v>
       </c>
       <c r="E57">
-        <v>0.436901809201096</v>
+        <v>0.429197537639476</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1441,16 +1441,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
         <v>27</v>
       </c>
       <c r="E58">
-        <v>0.4345060623366294</v>
+        <v>0.4289845892077916</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1458,16 +1458,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
         <v>27</v>
       </c>
       <c r="E59">
-        <v>0.429197537639476</v>
+        <v>0.4225489733865886</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,7 +1475,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
         <v>20</v>
@@ -1484,7 +1484,7 @@
         <v>27</v>
       </c>
       <c r="E60">
-        <v>0.4177731139407881</v>
+        <v>0.4216808118758538</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1492,16 +1492,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E61">
-        <v>0.4141694939400795</v>
+        <v>0.4056671373559019</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D62" t="s">
         <v>27</v>
       </c>
       <c r="E62">
-        <v>0.4002761477719327</v>
+        <v>0.3982755550137605</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1535,7 +1535,7 @@
         <v>27</v>
       </c>
       <c r="E63">
-        <v>0.4002761477719327</v>
+        <v>0.3943010202283865</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1546,13 +1546,13 @@
         <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
         <v>27</v>
       </c>
       <c r="E64">
-        <v>0.3952847075210474</v>
+        <v>0.3772955088158227</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1560,16 +1560,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E65">
-        <v>0.3911778805456514</v>
+        <v>0.3693881234333562</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E66">
-        <v>0.3904665529855135</v>
+        <v>0.3653504048091254</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,16 +1594,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E67">
-        <v>0.3899761464443914</v>
+        <v>0.3636428580210428</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E68">
-        <v>0.3869063232177555</v>
+        <v>0.3624486525180151</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1628,16 +1628,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E69">
-        <v>0.3738539833228968</v>
+        <v>0.3618734322278729</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E70">
-        <v>0.3651086880997419</v>
+        <v>0.3608208217963727</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
         <v>27</v>
       </c>
       <c r="E71">
-        <v>0.3630901271999933</v>
+        <v>0.3590109871423002</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1679,16 +1679,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D72" t="s">
         <v>26</v>
       </c>
       <c r="E72">
-        <v>0.3608042746819534</v>
+        <v>0.3485083718797539</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E73">
-        <v>0.3538352187692278</v>
+        <v>0.3459659855199579</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E74">
-        <v>0.3454839827881505</v>
+        <v>0.3429971702850176</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D75" t="s">
         <v>27</v>
       </c>
       <c r="E75">
-        <v>0.3432738925327593</v>
+        <v>0.3394673699166021</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1747,16 +1747,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
         <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E76">
-        <v>0.3432738925327593</v>
+        <v>0.3376118861978681</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E77">
-        <v>0.3422456917409341</v>
+        <v>0.3323911415301888</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,7 +1781,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>19</v>
@@ -1790,7 +1790,7 @@
         <v>27</v>
       </c>
       <c r="E78">
-        <v>0.3395810879824071</v>
+        <v>0.3261087984894177</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,7 +1798,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
         <v>19</v>
@@ -1807,7 +1807,7 @@
         <v>26</v>
       </c>
       <c r="E79">
-        <v>0.3351276786889348</v>
+        <v>0.3131686459027743</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,7 +1815,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>20</v>
@@ -1824,7 +1824,7 @@
         <v>26</v>
       </c>
       <c r="E80">
-        <v>0.3295970260581841</v>
+        <v>0.3125837179829514</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1832,16 +1832,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E81">
-        <v>0.3170218384200233</v>
+        <v>0.309401340004834</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E82">
-        <v>0.3092323292139504</v>
+        <v>0.3062561298932709</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E83">
-        <v>0.3055781038276734</v>
+        <v>0.3025054769088175</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,7 +1883,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>19</v>
@@ -1892,7 +1892,7 @@
         <v>27</v>
       </c>
       <c r="E84">
-        <v>0.29863075506192</v>
+        <v>0.295316338934927</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1903,13 +1903,13 @@
         <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E85">
-        <v>0.2981423969999721</v>
+        <v>0.2915876513113617</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D86" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E86">
-        <v>0.2837087221333644</v>
+        <v>0.2770362602892389</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E87">
-        <v>0.2806913154527165</v>
+        <v>0.2760262237369418</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E88">
-        <v>0.2742901925294968</v>
+        <v>0.274203148338092</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,7 +1968,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
         <v>18</v>
@@ -1977,7 +1977,7 @@
         <v>28</v>
       </c>
       <c r="E89">
-        <v>0.2661689959796762</v>
+        <v>0.2713726154214276</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,16 +1985,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E90">
-        <v>0.2639300148479807</v>
+        <v>0.2666965523220784</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,7 +2002,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
@@ -2011,7 +2011,7 @@
         <v>28</v>
       </c>
       <c r="E91">
-        <v>0.2627862379374014</v>
+        <v>0.263400294885257</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D92" t="s">
         <v>26</v>
       </c>
       <c r="E92">
-        <v>0.2577729537746617</v>
+        <v>0.2535718485347339</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E93">
-        <v>0.2551065759234071</v>
+        <v>0.2519548392761198</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D94" t="s">
         <v>27</v>
       </c>
       <c r="E94">
-        <v>0.254849056436838</v>
+        <v>0.2469758438566016</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E95">
-        <v>0.2521689379883135</v>
+        <v>0.2463897476997069</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2096,7 +2096,7 @@
         <v>26</v>
       </c>
       <c r="E96">
-        <v>0.2496674506250264</v>
+        <v>0.2379780232115386</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2107,13 +2107,13 @@
         <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D97" t="s">
         <v>26</v>
       </c>
       <c r="E97">
-        <v>0.2488034707542248</v>
+        <v>0.2359440959374358</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2130,7 +2130,7 @@
         <v>26</v>
       </c>
       <c r="E98">
-        <v>0.248563184652492</v>
+        <v>0.2355874690957636</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,16 +2138,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E99">
-        <v>0.2458445859472208</v>
+        <v>0.2330910353981566</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E100">
-        <v>0.2443325857605549</v>
+        <v>0.2322403297011465</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E101">
-        <v>0.2410289726880509</v>
+        <v>0.2276933438265037</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D102" t="s">
         <v>27</v>
       </c>
       <c r="E102">
-        <v>0.2407717061715384</v>
+        <v>0.2275491685296463</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D103" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E103">
-        <v>0.2407303623520205</v>
+        <v>0.2199123123693089</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D104" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E104">
-        <v>0.239542998391776</v>
+        <v>0.2197675485068349</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D105" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E105">
-        <v>0.2392963930199146</v>
+        <v>0.2167440914115573</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D106" t="s">
         <v>26</v>
       </c>
       <c r="E106">
-        <v>0.2378951814838668</v>
+        <v>0.2159809636886969</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,7 +2274,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>24</v>
@@ -2283,7 +2283,7 @@
         <v>27</v>
       </c>
       <c r="E107">
-        <v>0.2361380201692534</v>
+        <v>0.2143561870595304</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E108">
-        <v>0.2332897359033175</v>
+        <v>0.2142686336022321</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2308,7 +2308,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
         <v>20</v>
@@ -2317,7 +2317,7 @@
         <v>28</v>
       </c>
       <c r="E109">
-        <v>0.2270071669316127</v>
+        <v>0.2138658682769685</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C110" t="s">
         <v>24</v>
       </c>
       <c r="D110" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E110">
-        <v>0.2231291749951072</v>
+        <v>0.2120809380218068</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C111" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E111">
-        <v>0.2220699630592816</v>
+        <v>0.2096466398353614</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D112" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E112">
-        <v>0.2182717544563436</v>
+        <v>0.2037276440860194</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D113" t="s">
         <v>26</v>
       </c>
       <c r="E113">
-        <v>0.2169838304353012</v>
+        <v>0.202090784613579</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D114" t="s">
         <v>28</v>
       </c>
       <c r="E114">
-        <v>0.2162757608533412</v>
+        <v>0.1991974766118142</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2410,16 +2410,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E115">
-        <v>0.2146233389785027</v>
+        <v>0.1982859262567936</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E116">
-        <v>0.2144182207202335</v>
+        <v>0.1959833990185999</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D117" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E117">
-        <v>0.2114674657784334</v>
+        <v>0.1949366335848118</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2464,13 +2464,13 @@
         <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D118" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E118">
-        <v>0.210571286399289</v>
+        <v>0.1948008580606059</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2478,16 +2478,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E119">
-        <v>0.2087569906639186</v>
+        <v>0.1944769334977414</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D120" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E120">
-        <v>0.2083875982613563</v>
+        <v>0.1944769334977414</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D121" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E121">
-        <v>0.2070943220692609</v>
+        <v>0.1944769334977414</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D122" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E122">
-        <v>0.2066187247230657</v>
+        <v>0.1944769334977414</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D123" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E123">
-        <v>0.2047249797356595</v>
+        <v>0.1944769334977414</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D124" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E124">
-        <v>0.204074230885034</v>
+        <v>0.1944769334977414</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E125">
-        <v>0.2036626801965777</v>
+        <v>0.1944769334977414</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2603,10 +2603,10 @@
         <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E126">
-        <v>0.2019700649838872</v>
+        <v>0.1944769334977414</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C127" t="s">
         <v>22</v>
       </c>
       <c r="D127" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E127">
-        <v>0.2011131508949449</v>
+        <v>0.1930242135243834</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D128" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E128">
-        <v>0.19995449978882</v>
+        <v>0.1930242135243834</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2651,13 +2651,13 @@
         <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D129" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E129">
-        <v>0.1998713590537552</v>
+        <v>0.1930242135243834</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2665,16 +2665,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C130" t="s">
         <v>19</v>
       </c>
       <c r="D130" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E130">
-        <v>0.1980900133223695</v>
+        <v>0.1930242135243834</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2682,16 +2682,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D131" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E131">
-        <v>0.1957082714407326</v>
+        <v>0.1930242135243834</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D132" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E132">
-        <v>0.1941399725511682</v>
+        <v>0.1930242135243834</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C133" t="s">
         <v>24</v>
       </c>
       <c r="D133" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E133">
-        <v>0.1927395204967483</v>
+        <v>0.1930242135243834</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2736,13 +2736,13 @@
         <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D134" t="s">
         <v>29</v>
       </c>
       <c r="E134">
-        <v>0.1924714097909637</v>
+        <v>0.1930242135243834</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2750,16 +2750,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D135" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E135">
-        <v>0.1924714097909637</v>
+        <v>0.1927395204967483</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2767,16 +2767,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D136" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E136">
-        <v>0.1924714097909637</v>
+        <v>0.1913298464131102</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2784,16 +2784,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E137">
-        <v>0.1924714097909637</v>
+        <v>0.1901151018122351</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2804,13 +2804,13 @@
         <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E138">
-        <v>0.1924714097909637</v>
+        <v>0.1884743403027056</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2821,13 +2821,13 @@
         <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D139" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E139">
-        <v>0.1924714097909637</v>
+        <v>0.1868667553634107</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E140">
-        <v>0.1924714097909637</v>
+        <v>0.1863146531646262</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2855,13 +2855,13 @@
         <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E141">
-        <v>0.1924714097909637</v>
+        <v>0.1861746755676131</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2869,16 +2869,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D142" t="s">
         <v>28</v>
       </c>
       <c r="E142">
-        <v>0.1921178586216898</v>
+        <v>0.1858497474688197</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D143" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E143">
-        <v>0.1891724371273446</v>
+        <v>0.185767453287402</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D144" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E144">
-        <v>0.188810142333994</v>
+        <v>0.1848072721180559</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C145" t="s">
         <v>18</v>
       </c>
       <c r="D145" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E145">
-        <v>0.1867407241606776</v>
+        <v>0.1846770574663388</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,16 +2937,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E146">
-        <v>0.1862511877901132</v>
+        <v>0.1845404826213916</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C147" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D147" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E147">
-        <v>0.1862511877901132</v>
+        <v>0.1834926726278852</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E148">
-        <v>0.1862511877901132</v>
+        <v>0.1832063446155231</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D149" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E149">
-        <v>0.1862511877901132</v>
+        <v>0.1830651273936235</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3005,16 +3005,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D150" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E150">
-        <v>0.1862511877901132</v>
+        <v>0.1828243087765299</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D151" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E151">
-        <v>0.1862511877901132</v>
+        <v>0.1820074353343608</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3042,13 +3042,13 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D152" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E152">
-        <v>0.1862511877901132</v>
+        <v>0.181697964417347</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C153" t="s">
         <v>20</v>
       </c>
       <c r="D153" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E153">
-        <v>0.1862511877901132</v>
+        <v>0.1797267463863397</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C154" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D154" t="s">
         <v>28</v>
       </c>
       <c r="E154">
-        <v>0.1834540918257981</v>
+        <v>0.1793024966425052</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D155" t="s">
         <v>27</v>
       </c>
       <c r="E155">
-        <v>0.1830651273936235</v>
+        <v>0.178399043557152</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3107,16 +3107,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D156" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E156">
-        <v>0.1818682738039591</v>
+        <v>0.1780400301148409</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D157" t="s">
         <v>28</v>
       </c>
       <c r="E157">
-        <v>0.1801924993329552</v>
+        <v>0.1755506855408198</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>21</v>
       </c>
       <c r="D158" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E158">
-        <v>0.1793098084213898</v>
+        <v>0.1727325153478286</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,16 +3158,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C159" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E159">
-        <v>0.1780634073676134</v>
+        <v>0.1717765351883427</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3175,16 +3175,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C160" t="s">
         <v>22</v>
       </c>
       <c r="D160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E160">
-        <v>0.1773793186931802</v>
+        <v>0.1715152346823901</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3198,10 +3198,10 @@
         <v>25</v>
       </c>
       <c r="D161" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E161">
-        <v>0.1749494166509137</v>
+        <v>0.1708416908473734</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C162" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D162" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E162">
-        <v>0.1746899213840358</v>
+        <v>0.1705106037015366</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3226,16 +3226,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C163" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E163">
-        <v>0.1741284847632608</v>
+        <v>0.1696773549098269</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,16 +3243,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D164" t="s">
         <v>28</v>
       </c>
       <c r="E164">
-        <v>0.1721649320732007</v>
+        <v>0.1679532390184767</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D165" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E165">
-        <v>0.1720529574477361</v>
+        <v>0.1632199383514181</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3277,16 +3277,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D166" t="s">
         <v>29</v>
       </c>
       <c r="E166">
-        <v>0.1712557273022497</v>
+        <v>0.1632199383514181</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D167" t="s">
         <v>29</v>
       </c>
       <c r="E167">
-        <v>0.1712557273022497</v>
+        <v>0.1632199383514181</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D168" t="s">
         <v>29</v>
       </c>
       <c r="E168">
-        <v>0.1712557273022497</v>
+        <v>0.1632199383514181</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D169" t="s">
         <v>29</v>
       </c>
       <c r="E169">
-        <v>0.1712557273022497</v>
+        <v>0.1632199383514181</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D170" t="s">
         <v>29</v>
       </c>
       <c r="E170">
-        <v>0.1712557273022497</v>
+        <v>0.1632199383514181</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D171" t="s">
         <v>29</v>
       </c>
       <c r="E171">
-        <v>0.1712557273022497</v>
+        <v>0.1632199383514181</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D172" t="s">
         <v>29</v>
       </c>
       <c r="E172">
-        <v>0.1712557273022497</v>
+        <v>0.1632199383514181</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C173" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D173" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E173">
-        <v>0.1712557273022497</v>
+        <v>0.1625729883555256</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D174" t="s">
         <v>28</v>
       </c>
       <c r="E174">
-        <v>0.1710370538786101</v>
+        <v>0.1623473883713929</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C175" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D175" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E175">
-        <v>0.1706152449865365</v>
+        <v>0.1623368811634774</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D176" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E176">
-        <v>0.1696159722989216</v>
+        <v>0.1617308313570975</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3467,13 +3467,13 @@
         <v>11</v>
       </c>
       <c r="C177" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D177" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E177">
-        <v>0.169293727510663</v>
+        <v>0.1600742148764843</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D178" t="s">
         <v>28</v>
       </c>
       <c r="E178">
-        <v>0.1680908051298987</v>
+        <v>0.1572445176086612</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E179">
-        <v>0.1666791553910519</v>
+        <v>0.1566044918198483</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D180" t="s">
         <v>28</v>
       </c>
       <c r="E180">
-        <v>0.166217762807766</v>
+        <v>0.1551443191567888</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3535,13 +3535,13 @@
         <v>10</v>
       </c>
       <c r="C181" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D181" t="s">
         <v>28</v>
       </c>
       <c r="E181">
-        <v>0.1660401840211688</v>
+        <v>0.1542813527159541</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,7 +3549,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C182" t="s">
         <v>20</v>
@@ -3558,7 +3558,7 @@
         <v>26</v>
       </c>
       <c r="E182">
-        <v>0.1646944527078554</v>
+        <v>0.1539891904034457</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C183" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D183" t="s">
         <v>28</v>
       </c>
       <c r="E183">
-        <v>0.1601717219610252</v>
+        <v>0.1539850002870892</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C184" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D184" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E184">
-        <v>0.1599457575267269</v>
+        <v>0.1535543791899827</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C185" t="s">
         <v>22</v>
       </c>
       <c r="D185" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E185">
-        <v>0.1567234284569539</v>
+        <v>0.1533503286423517</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C186" t="s">
         <v>25</v>
       </c>
       <c r="D186" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E186">
-        <v>0.1562347095030695</v>
+        <v>0.1501673991188488</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3634,16 +3634,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C187" t="s">
         <v>25</v>
       </c>
       <c r="D187" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E187">
-        <v>0.1560588403465114</v>
+        <v>0.1494268853744769</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C188" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D188" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E188">
-        <v>0.1554869700299051</v>
+        <v>0.1486999755767757</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3668,16 +3668,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D189" t="s">
         <v>28</v>
       </c>
       <c r="E189">
-        <v>0.1531778404224227</v>
+        <v>0.1481665533539054</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3685,16 +3685,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C190" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D190" t="s">
         <v>28</v>
       </c>
       <c r="E190">
-        <v>0.1521846932345171</v>
+        <v>0.1478711295269472</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C191" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D191" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E191">
-        <v>0.1517243241422473</v>
+        <v>0.1468776147269051</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C192" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D192" t="s">
         <v>28</v>
       </c>
       <c r="E192">
-        <v>0.1516327621554522</v>
+        <v>0.1461046654943358</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D193" t="s">
         <v>28</v>
       </c>
       <c r="E193">
-        <v>0.1514594258500849</v>
+        <v>0.1435044338180889</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C194" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D194" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E194">
-        <v>0.1511193079620664</v>
+        <v>0.142764997697061</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C195" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D195" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E195">
-        <v>0.1498710514994635</v>
+        <v>0.1424277764366395</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D196" t="s">
         <v>28</v>
       </c>
       <c r="E196">
-        <v>0.149559748199585</v>
+        <v>0.1420093758722683</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D197" t="s">
         <v>28</v>
       </c>
       <c r="E197">
-        <v>0.1489398125577369</v>
+        <v>0.1411880742866221</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3821,16 +3821,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D198" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E198">
-        <v>0.1466118165026844</v>
+        <v>0.1410145311871842</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D199" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E199">
-        <v>0.1464823624294658</v>
+        <v>0.1401310275564519</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,7 +3855,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C200" t="s">
         <v>23</v>
@@ -3864,7 +3864,7 @@
         <v>29</v>
       </c>
       <c r="E200">
-        <v>0.1464695839876084</v>
+        <v>0.1398985668076928</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,7 +3872,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C201" t="s">
         <v>21</v>
@@ -3881,7 +3881,7 @@
         <v>29</v>
       </c>
       <c r="E201">
-        <v>0.1464695839876084</v>
+        <v>0.1398985668076928</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,7 +3889,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C202" t="s">
         <v>24</v>
@@ -3898,7 +3898,7 @@
         <v>29</v>
       </c>
       <c r="E202">
-        <v>0.1464695839876084</v>
+        <v>0.1398985668076928</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3906,7 +3906,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C203" t="s">
         <v>25</v>
@@ -3915,7 +3915,7 @@
         <v>29</v>
       </c>
       <c r="E203">
-        <v>0.1464695839876084</v>
+        <v>0.1398985668076928</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3923,7 +3923,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C204" t="s">
         <v>22</v>
@@ -3932,7 +3932,7 @@
         <v>29</v>
       </c>
       <c r="E204">
-        <v>0.1464695839876084</v>
+        <v>0.1398985668076928</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,7 +3940,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C205" t="s">
         <v>20</v>
@@ -3949,7 +3949,7 @@
         <v>29</v>
       </c>
       <c r="E205">
-        <v>0.1464695839876084</v>
+        <v>0.1398985668076928</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,7 +3957,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C206" t="s">
         <v>18</v>
@@ -3966,7 +3966,7 @@
         <v>29</v>
       </c>
       <c r="E206">
-        <v>0.1464695839876084</v>
+        <v>0.1398985668076928</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,7 +3974,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C207" t="s">
         <v>19</v>
@@ -3983,7 +3983,7 @@
         <v>29</v>
       </c>
       <c r="E207">
-        <v>0.1464695839876084</v>
+        <v>0.1398985668076928</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D208" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E208">
-        <v>0.1457289134945359</v>
+        <v>0.1393140871277971</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C209" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D209" t="s">
         <v>28</v>
       </c>
       <c r="E209">
-        <v>0.1453043057357378</v>
+        <v>0.1383069936919264</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C210" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D210" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E210">
-        <v>0.1449617394781018</v>
+        <v>0.138013111868471</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C211" t="s">
         <v>22</v>
       </c>
       <c r="D211" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E211">
-        <v>0.1442560741635105</v>
+        <v>0.1377183167040913</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C212" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D212" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E212">
-        <v>0.1423989503894262</v>
+        <v>0.1375241690281518</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4076,7 +4076,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>20</v>
@@ -4085,7 +4085,7 @@
         <v>28</v>
       </c>
       <c r="E213">
-        <v>0.1415341834722108</v>
+        <v>0.1373236840928737</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C214" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D214" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E214">
-        <v>0.139182632102284</v>
+        <v>0.1360835585429483</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C215" t="s">
         <v>24</v>
       </c>
       <c r="D215" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E215">
-        <v>0.1390706327208861</v>
+        <v>0.1360835585429483</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C216" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D216" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E216">
-        <v>0.1389291882820287</v>
+        <v>0.1360835585429483</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4147,13 +4147,13 @@
         <v>16</v>
       </c>
       <c r="C217" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D217" t="s">
         <v>29</v>
       </c>
       <c r="E217">
-        <v>0.1380977551488294</v>
+        <v>0.1360835585429483</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4164,13 +4164,13 @@
         <v>16</v>
       </c>
       <c r="C218" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D218" t="s">
         <v>29</v>
       </c>
       <c r="E218">
-        <v>0.1380977551488294</v>
+        <v>0.1360835585429483</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4181,13 +4181,13 @@
         <v>16</v>
       </c>
       <c r="C219" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D219" t="s">
         <v>29</v>
       </c>
       <c r="E219">
-        <v>0.1380977551488294</v>
+        <v>0.1360835585429483</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4198,13 +4198,13 @@
         <v>16</v>
       </c>
       <c r="C220" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D220" t="s">
         <v>29</v>
       </c>
       <c r="E220">
-        <v>0.1380977551488294</v>
+        <v>0.1360835585429483</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4215,13 +4215,13 @@
         <v>16</v>
       </c>
       <c r="C221" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D221" t="s">
         <v>29</v>
       </c>
       <c r="E221">
-        <v>0.1380977551488294</v>
+        <v>0.1360835585429483</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C222" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E222">
-        <v>0.1380977551488294</v>
+        <v>0.1356815155984723</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4249,13 +4249,13 @@
         <v>16</v>
       </c>
       <c r="C223" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D223" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E223">
-        <v>0.1380977551488294</v>
+        <v>0.1353708758881037</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E224">
-        <v>0.1380977551488294</v>
+        <v>0.1349354416948857</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D225" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E225">
-        <v>0.1379094594979584</v>
+        <v>0.1343423651056406</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C226" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D226" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E226">
-        <v>0.137626912373335</v>
+        <v>0.1330518499239911</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,7 +4314,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C227" t="s">
         <v>25</v>
@@ -4323,7 +4323,7 @@
         <v>26</v>
       </c>
       <c r="E227">
-        <v>0.137371594151837</v>
+        <v>0.133038412840481</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4331,16 +4331,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D228" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E228">
-        <v>0.1370347761130173</v>
+        <v>0.1318987087400762</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D229" t="s">
         <v>29</v>
       </c>
       <c r="E229">
-        <v>0.1357031415520404</v>
+        <v>0.1318987087400762</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4365,16 +4365,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D230" t="s">
         <v>29</v>
       </c>
       <c r="E230">
-        <v>0.1357031415520404</v>
+        <v>0.1318987087400762</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4382,16 +4382,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D231" t="s">
         <v>29</v>
       </c>
       <c r="E231">
-        <v>0.1357031415520404</v>
+        <v>0.1318987087400762</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D232" t="s">
         <v>29</v>
       </c>
       <c r="E232">
-        <v>0.1357031415520404</v>
+        <v>0.1318987087400762</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D233" t="s">
         <v>29</v>
       </c>
       <c r="E233">
-        <v>0.1357031415520404</v>
+        <v>0.1318987087400762</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D234" t="s">
         <v>29</v>
       </c>
       <c r="E234">
-        <v>0.1357031415520404</v>
+        <v>0.1318987087400762</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4450,16 +4450,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D235" t="s">
         <v>29</v>
       </c>
       <c r="E235">
-        <v>0.1357031415520404</v>
+        <v>0.1318987087400762</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C236" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D236" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E236">
-        <v>0.1357031415520404</v>
+        <v>0.1317668921821125</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4484,16 +4484,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C237" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D237" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E237">
-        <v>0.1348086590187122</v>
+        <v>0.1306975937844048</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4501,16 +4501,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C238" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D238" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E238">
-        <v>0.1337559671005483</v>
+        <v>0.1306975937844048</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C239" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D239" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E239">
-        <v>0.1334795580962682</v>
+        <v>0.1306975937844048</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C240" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D240" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E240">
-        <v>0.1321493969336707</v>
+        <v>0.1306975937844048</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C241" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D241" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E241">
-        <v>0.1314833219879094</v>
+        <v>0.1306975937844048</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C242" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D242" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E242">
-        <v>0.1295776036345277</v>
+        <v>0.1306975937844048</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C243" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D243" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E243">
-        <v>0.1289175936233486</v>
+        <v>0.1306975937844048</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C244" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D244" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E244">
-        <v>0.1285317402719523</v>
+        <v>0.1306975937844048</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4620,16 +4620,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C245" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D245" t="s">
         <v>28</v>
       </c>
       <c r="E245">
-        <v>0.1277635227422255</v>
+        <v>0.1284777954294217</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C246" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D246" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E246">
-        <v>0.1273508447376641</v>
+        <v>0.1280240441554269</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4654,16 +4654,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D247" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E247">
-        <v>0.1273508447376641</v>
+        <v>0.127001113412721</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4671,16 +4671,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C248" t="s">
         <v>24</v>
       </c>
       <c r="D248" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E248">
-        <v>0.1273508447376641</v>
+        <v>0.1245254512083969</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>25</v>
       </c>
       <c r="D249" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E249">
-        <v>0.1273508447376641</v>
+        <v>0.1235732226514733</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C250" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D250" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E250">
-        <v>0.1273508447376641</v>
+        <v>0.1230200315424646</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C251" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D251" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E251">
-        <v>0.1273508447376641</v>
+        <v>0.1224678146259815</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C252" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D252" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E252">
-        <v>0.1273508447376641</v>
+        <v>0.1218054822221738</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C253" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D253" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E253">
-        <v>0.1273508447376641</v>
+        <v>0.1216786912621892</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4773,16 +4773,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D254" t="s">
         <v>28</v>
       </c>
       <c r="E254">
-        <v>0.1256600348766447</v>
+        <v>0.1202561380591034</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D255" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E255">
-        <v>0.1251818340384064</v>
+        <v>0.118724638164325</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C256" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D256" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E256">
-        <v>0.1244962242106615</v>
+        <v>0.1171424838505682</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C257" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D257" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E257">
-        <v>0.1238810229712291</v>
+        <v>0.1170009749671632</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,16 +4841,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C258" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D258" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E258">
-        <v>0.1235132776318352</v>
+        <v>0.1167118231876598</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4858,16 +4858,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C259" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D259" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E259">
-        <v>0.1232640099634288</v>
+        <v>0.1158745190974552</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4875,16 +4875,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C260" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D260" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E260">
-        <v>0.1224407902384651</v>
+        <v>0.1133953681299574</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C261" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D261" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E261">
-        <v>0.1224407902384651</v>
+        <v>0.1126374459547195</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C262" t="s">
         <v>21</v>
       </c>
       <c r="D262" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E262">
-        <v>0.1224407902384651</v>
+        <v>0.1125031697336793</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C263" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D263" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E263">
-        <v>0.1224407902384651</v>
+        <v>0.1124612685047452</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C264" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D264" t="s">
         <v>29</v>
       </c>
       <c r="E264">
-        <v>0.1224407902384651</v>
+        <v>0.1124330662563331</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4960,16 +4960,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C265" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D265" t="s">
         <v>29</v>
       </c>
       <c r="E265">
-        <v>0.1224407902384651</v>
+        <v>0.1124330662563331</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C266" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D266" t="s">
         <v>29</v>
       </c>
       <c r="E266">
-        <v>0.1224407902384651</v>
+        <v>0.1124330662563331</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C267" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D267" t="s">
         <v>29</v>
       </c>
       <c r="E267">
-        <v>0.1224407902384651</v>
+        <v>0.1124330662563331</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5011,16 +5011,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C268" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D268" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E268">
-        <v>0.1217776898058598</v>
+        <v>0.1124330662563331</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C269" t="s">
         <v>21</v>
       </c>
       <c r="D269" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E269">
-        <v>0.1212553108885715</v>
+        <v>0.1124330662563331</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C270" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D270" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E270">
-        <v>0.1209776889289921</v>
+        <v>0.1124330662563331</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C271" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D271" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E271">
-        <v>0.12006961638733</v>
+        <v>0.1124330662563331</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C272" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D272" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E272">
-        <v>0.1187472445504398</v>
+        <v>0.1121494674009002</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,7 +5096,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C273" t="s">
         <v>23</v>
@@ -5105,7 +5105,7 @@
         <v>28</v>
       </c>
       <c r="E273">
-        <v>0.116634905837358</v>
+        <v>0.1119780580313681</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C274" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D274" t="s">
         <v>28</v>
       </c>
       <c r="E274">
-        <v>0.116327831429757</v>
+        <v>0.1118165490006118</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C275" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D275" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E275">
-        <v>0.1157619082433878</v>
+        <v>0.1112594228730907</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5150,13 +5150,13 @@
         <v>12</v>
       </c>
       <c r="C276" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D276" t="s">
         <v>28</v>
       </c>
       <c r="E276">
-        <v>0.1154641558788855</v>
+        <v>0.111157960920659</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C277" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D277" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E277">
-        <v>0.1149894330519183</v>
+        <v>0.1107745703075909</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,7 +5181,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C278" t="s">
         <v>23</v>
@@ -5190,7 +5190,7 @@
         <v>26</v>
       </c>
       <c r="E278">
-        <v>0.1147709386083293</v>
+        <v>0.1093146468712921</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5198,16 +5198,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C279" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D279" t="s">
         <v>26</v>
       </c>
       <c r="E279">
-        <v>0.1136359360423072</v>
+        <v>0.1091960231704572</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,7 +5215,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C280" t="s">
         <v>21</v>
@@ -5224,7 +5224,7 @@
         <v>26</v>
       </c>
       <c r="E280">
-        <v>0.1133267977022228</v>
+        <v>0.1089163466771099</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,7 +5232,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C281" t="s">
         <v>22</v>
@@ -5241,7 +5241,7 @@
         <v>26</v>
       </c>
       <c r="E281">
-        <v>0.1125770634022334</v>
+        <v>0.1081948229604967</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,7 +5249,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C282" t="s">
         <v>23</v>
@@ -5258,7 +5258,7 @@
         <v>28</v>
       </c>
       <c r="E282">
-        <v>0.1119039887948664</v>
+        <v>0.1076916951634888</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C283" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D283" t="s">
         <v>26</v>
       </c>
       <c r="E283">
-        <v>0.1118907018917998</v>
+        <v>0.1074111566618175</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,7 +5283,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C284" t="s">
         <v>25</v>
@@ -5292,7 +5292,7 @@
         <v>26</v>
       </c>
       <c r="E284">
-        <v>0.1114033947433419</v>
+        <v>0.1062893341659031</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5300,16 +5300,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C285" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D285" t="s">
         <v>28</v>
       </c>
       <c r="E285">
-        <v>0.1109777431163944</v>
+        <v>0.1056849442046549</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C286" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D286" t="s">
         <v>28</v>
       </c>
       <c r="E286">
-        <v>0.1105268758520105</v>
+        <v>0.1050343839430428</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,16 +5334,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C287" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D287" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E287">
-        <v>0.1097824771072605</v>
+        <v>0.1047899231097233</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5354,13 +5354,13 @@
         <v>17</v>
       </c>
       <c r="C288" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D288" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E288">
-        <v>0.1095735913457136</v>
+        <v>0.1047899231097233</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C289" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D289" t="s">
         <v>29</v>
       </c>
       <c r="E289">
-        <v>0.1086501574157536</v>
+        <v>0.1047899231097233</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5385,16 +5385,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C290" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D290" t="s">
         <v>29</v>
       </c>
       <c r="E290">
-        <v>0.1086501574157536</v>
+        <v>0.1047899231097233</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5402,16 +5402,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C291" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D291" t="s">
         <v>29</v>
       </c>
       <c r="E291">
-        <v>0.1086501574157536</v>
+        <v>0.1047899231097233</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,16 +5419,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C292" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D292" t="s">
         <v>29</v>
       </c>
       <c r="E292">
-        <v>0.1086501574157536</v>
+        <v>0.1047899231097233</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,16 +5436,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C293" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D293" t="s">
         <v>29</v>
       </c>
       <c r="E293">
-        <v>0.1086501574157536</v>
+        <v>0.1047899231097233</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C294" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D294" t="s">
         <v>29</v>
       </c>
       <c r="E294">
-        <v>0.1086501574157536</v>
+        <v>0.1047899231097233</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5470,16 +5470,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C295" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D295" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E295">
-        <v>0.1086501574157536</v>
+        <v>0.1041248392641928</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5490,13 +5490,13 @@
         <v>12</v>
       </c>
       <c r="C296" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D296" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E296">
-        <v>0.1086501574157536</v>
+        <v>0.1037293845335909</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,16 +5504,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C297" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D297" t="s">
         <v>26</v>
       </c>
       <c r="E297">
-        <v>0.1080968723876512</v>
+        <v>0.1037180360877792</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C298" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D298" t="s">
         <v>28</v>
       </c>
       <c r="E298">
-        <v>0.1078739002163775</v>
+        <v>0.1033270522648334</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C299" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D299" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E299">
-        <v>0.1070239136013855</v>
+        <v>0.103131369561948</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,7 +5555,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C300" t="s">
         <v>22</v>
@@ -5564,7 +5564,7 @@
         <v>28</v>
       </c>
       <c r="E300">
-        <v>0.1068500578471789</v>
+        <v>0.1019476060801849</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5572,16 +5572,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C301" t="s">
         <v>22</v>
       </c>
       <c r="D301" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E301">
-        <v>0.1066223550928071</v>
+        <v>0.1019087460710003</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,16 +5589,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C302" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D302" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E302">
-        <v>0.1066223550928071</v>
+        <v>0.1011043828707784</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C303" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D303" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E303">
-        <v>0.1066223550928071</v>
+        <v>0.1009991101310506</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5626,13 +5626,13 @@
         <v>8</v>
       </c>
       <c r="C304" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D304" t="s">
         <v>29</v>
       </c>
       <c r="E304">
-        <v>0.1066223550928071</v>
+        <v>0.1006915273049078</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5643,13 +5643,13 @@
         <v>8</v>
       </c>
       <c r="C305" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D305" t="s">
         <v>29</v>
       </c>
       <c r="E305">
-        <v>0.1066223550928071</v>
+        <v>0.1006915273049078</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5660,13 +5660,13 @@
         <v>8</v>
       </c>
       <c r="C306" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D306" t="s">
         <v>29</v>
       </c>
       <c r="E306">
-        <v>0.1066223550928071</v>
+        <v>0.1006915273049078</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5677,13 +5677,13 @@
         <v>8</v>
       </c>
       <c r="C307" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D307" t="s">
         <v>29</v>
       </c>
       <c r="E307">
-        <v>0.1066223550928071</v>
+        <v>0.1006915273049078</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5694,13 +5694,13 @@
         <v>8</v>
       </c>
       <c r="C308" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D308" t="s">
         <v>29</v>
       </c>
       <c r="E308">
-        <v>0.1066223550928071</v>
+        <v>0.1006915273049078</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5708,16 +5708,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C309" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D309" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E309">
-        <v>0.1066084890925938</v>
+        <v>0.1006915273049078</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5728,13 +5728,13 @@
         <v>8</v>
       </c>
       <c r="C310" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D310" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E310">
-        <v>0.1053932150617695</v>
+        <v>0.1006915273049078</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C311" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D311" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E311">
-        <v>0.1052423381141787</v>
+        <v>0.1006915273049078</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,16 +5759,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C312" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D312" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E312">
-        <v>0.1050187368891814</v>
+        <v>0.1001336005939786</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5779,13 +5779,13 @@
         <v>13</v>
       </c>
       <c r="C313" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D313" t="s">
         <v>26</v>
       </c>
       <c r="E313">
-        <v>0.1038281779590548</v>
+        <v>0.09983902937024437</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,16 +5793,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C314" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D314" t="s">
         <v>26</v>
       </c>
       <c r="E314">
-        <v>0.1031863530514628</v>
+        <v>0.09727014315651369</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C315" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D315" t="s">
         <v>28</v>
       </c>
       <c r="E315">
-        <v>0.1029640910822462</v>
+        <v>0.09613670135133885</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5830,13 +5830,13 @@
         <v>17</v>
       </c>
       <c r="C316" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D316" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E316">
-        <v>0.1028293388156936</v>
+        <v>0.09610076447311192</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,7 +5844,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C317" t="s">
         <v>24</v>
@@ -5853,7 +5853,7 @@
         <v>26</v>
       </c>
       <c r="E317">
-        <v>0.1024827243488886</v>
+        <v>0.09608790985340848</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C318" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D318" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E318">
-        <v>0.1013998628571207</v>
+        <v>0.09519233138147383</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,7 +5878,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C319" t="s">
         <v>22</v>
@@ -5887,7 +5887,7 @@
         <v>26</v>
       </c>
       <c r="E319">
-        <v>0.1003310633431223</v>
+        <v>0.09491387329606121</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5895,16 +5895,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C320" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D320" t="s">
         <v>26</v>
       </c>
       <c r="E320">
-        <v>0.09998267172577953</v>
+        <v>0.09470455235949789</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C321" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D321" t="s">
         <v>28</v>
       </c>
       <c r="E321">
-        <v>0.09975860809143186</v>
+        <v>0.09443107454595664</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,16 +5929,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C322" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D322" t="s">
         <v>28</v>
       </c>
       <c r="E322">
-        <v>0.09922480491927833</v>
+        <v>0.09399762752390896</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5946,16 +5946,16 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C323" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D323" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E323">
-        <v>0.09871371596789384</v>
+        <v>0.09352685143876113</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5963,16 +5963,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C324" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D324" t="s">
         <v>28</v>
       </c>
       <c r="E324">
-        <v>0.09814767379842683</v>
+        <v>0.09307212793991679</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,16 +5980,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C325" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D325" t="s">
         <v>26</v>
       </c>
       <c r="E325">
-        <v>0.09324892000856679</v>
+        <v>0.09296880162274809</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5997,16 +5997,16 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C326" t="s">
         <v>21</v>
       </c>
       <c r="D326" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E326">
-        <v>0.09294275573629253</v>
+        <v>0.0913489910146856</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,16 +6014,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C327" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D327" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E327">
-        <v>0.0926031198249541</v>
+        <v>0.09060339315797476</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6031,16 +6031,16 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C328" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D328" t="s">
         <v>26</v>
       </c>
       <c r="E328">
-        <v>0.09126217450439496</v>
+        <v>0.08925085378561078</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C329" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D329" t="s">
         <v>28</v>
       </c>
       <c r="E329">
-        <v>0.08937789719727161</v>
+        <v>0.08920669617202888</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6065,16 +6065,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C330" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D330" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E330">
-        <v>0.08899263609336143</v>
+        <v>0.08813784917284674</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C331" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D331" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E331">
-        <v>0.08864444063366259</v>
+        <v>0.08813784917284674</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,16 +6099,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C332" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D332" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E332">
-        <v>0.08770220196804292</v>
+        <v>0.08813784917284674</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,16 +6116,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C333" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D333" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E333">
-        <v>0.08584519283211269</v>
+        <v>0.08813784917284674</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6133,16 +6133,16 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C334" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D334" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E334">
-        <v>0.08569317117157041</v>
+        <v>0.08813784917284674</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6150,16 +6150,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C335" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D335" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E335">
-        <v>0.08494790453398481</v>
+        <v>0.08813784917284674</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C336" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D336" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E336">
-        <v>0.08470740628100781</v>
+        <v>0.08813784917284674</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C337" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D337" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E337">
-        <v>0.08316709801494854</v>
+        <v>0.08813784917284674</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,16 +6201,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C338" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D338" t="s">
         <v>26</v>
       </c>
       <c r="E338">
-        <v>0.08316246933777265</v>
+        <v>0.08611626255668024</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6218,16 +6218,16 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C339" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D339" t="s">
         <v>26</v>
       </c>
       <c r="E339">
-        <v>0.08181527628099404</v>
+        <v>0.08543783905670023</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6238,13 +6238,13 @@
         <v>8</v>
       </c>
       <c r="C340" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D340" t="s">
         <v>26</v>
       </c>
       <c r="E340">
-        <v>0.08059880646470893</v>
+        <v>0.0853958510332643</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6255,13 +6255,13 @@
         <v>14</v>
       </c>
       <c r="C341" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D341" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E341">
-        <v>0.07864066308647839</v>
+        <v>0.08507461101953544</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,16 +6269,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C342" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D342" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E342">
-        <v>0.07784298265762711</v>
+        <v>0.08380867644757602</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6286,16 +6286,16 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C343" t="s">
         <v>22</v>
       </c>
       <c r="D343" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E343">
-        <v>0.07736064857338397</v>
+        <v>0.0836518684997717</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C344" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D344" t="s">
         <v>28</v>
       </c>
       <c r="E344">
-        <v>0.07671759023071821</v>
+        <v>0.08329095233389884</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,16 +6320,16 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C345" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D345" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E345">
-        <v>0.07647293354946705</v>
+        <v>0.08307646510623705</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6340,13 +6340,13 @@
         <v>9</v>
       </c>
       <c r="C346" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D346" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E346">
-        <v>0.07607823758463218</v>
+        <v>0.08280967086921366</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C347" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D347" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E347">
-        <v>0.07427433569237378</v>
+        <v>0.08174383775741052</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6371,16 +6371,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C348" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D348" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E348">
-        <v>0.07201912591001877</v>
+        <v>0.08099041725433194</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,7 +6388,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C349" t="s">
         <v>23</v>
@@ -6397,7 +6397,7 @@
         <v>26</v>
       </c>
       <c r="E349">
-        <v>0.07144607382315417</v>
+        <v>0.07984641361359862</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6405,16 +6405,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C350" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D350" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E350">
-        <v>0.07132849467055412</v>
+        <v>0.07851294265658283</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6425,13 +6425,13 @@
         <v>9</v>
       </c>
       <c r="C351" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D351" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E351">
-        <v>0.07132849467055412</v>
+        <v>0.07797888827609858</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,16 +6439,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C352" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D352" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E352">
-        <v>0.07132849467055412</v>
+        <v>0.07796728176695349</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C353" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D353" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E353">
-        <v>0.07132849467055412</v>
+        <v>0.07629671816304934</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,16 +6473,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C354" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D354" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E354">
-        <v>0.07132849467055412</v>
+        <v>0.07559524511415872</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,16 +6490,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C355" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D355" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E355">
-        <v>0.07132849467055412</v>
+        <v>0.07261321719732108</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C356" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D356" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E356">
-        <v>0.07132849467055412</v>
+        <v>0.07002502836803882</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C357" t="s">
         <v>23</v>
       </c>
       <c r="D357" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E357">
-        <v>0.07132849467055412</v>
+        <v>0.06945602174736969</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,7 +6541,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C358" t="s">
         <v>21</v>
@@ -6550,7 +6550,7 @@
         <v>26</v>
       </c>
       <c r="E358">
-        <v>0.07009477963951323</v>
+        <v>0.06872510170228872</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6558,16 +6558,16 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C359" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D359" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E359">
-        <v>0.0696628988769257</v>
+        <v>0.06819951951691312</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C360" t="s">
         <v>23</v>
       </c>
       <c r="D360" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E360">
-        <v>0.06940303289157118</v>
+        <v>0.0678696580137195</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6592,16 +6592,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C361" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D361" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E361">
-        <v>0.06919778120062248</v>
+        <v>0.06713523973547623</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6609,16 +6609,16 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C362" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D362" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E362">
-        <v>0.06838657950774864</v>
+        <v>0.06566123851466947</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,16 +6626,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C363" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D363" t="s">
         <v>28</v>
       </c>
       <c r="E363">
-        <v>0.0654581581449601</v>
+        <v>0.064994265969153</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6643,7 +6643,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C364" t="s">
         <v>21</v>
@@ -6652,7 +6652,7 @@
         <v>26</v>
       </c>
       <c r="E364">
-        <v>0.06131918644440514</v>
+        <v>0.06289036872623964</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,16 +6660,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C365" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D365" t="s">
         <v>28</v>
       </c>
       <c r="E365">
-        <v>0.05623839422277314</v>
+        <v>0.0608261480627516</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C366" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D366" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E366">
-        <v>0.05608752987887475</v>
+        <v>0.05883335103415075</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,16 +6694,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C367" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D367" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E367">
-        <v>0.05571977133735791</v>
+        <v>0.05883335103415075</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6711,16 +6711,16 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C368" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D368" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E368">
-        <v>0.05426953380582294</v>
+        <v>0.05883335103415075</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,16 +6728,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C369" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D369" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E369">
-        <v>0.05332166834258566</v>
+        <v>0.05883335103415075</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,16 +6745,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C370" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D370" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E370">
-        <v>0.05162534274015672</v>
+        <v>0.05883335103415075</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,16 +6762,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C371" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D371" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E371">
-        <v>0.04940163611952633</v>
+        <v>0.05883335103415075</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,16 +6779,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C372" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D372" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E372">
-        <v>0.04914667102001492</v>
+        <v>0.05883335103415075</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,16 +6796,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C373" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D373" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E373">
-        <v>0.04740952561518299</v>
+        <v>0.05883335103415075</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,16 +6813,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C374" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D374" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E374">
-        <v>0.04713483094918416</v>
+        <v>0.057382922767632</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C375" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D375" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E375">
-        <v>0.04713483094918416</v>
+        <v>0.05373490108337711</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,16 +6847,16 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C376" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D376" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E376">
-        <v>0.04713483094918416</v>
+        <v>0.05341133270511617</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C377" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D377" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E377">
-        <v>0.04713483094918416</v>
+        <v>0.0509928614835402</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C378" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D378" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E378">
-        <v>0.04713483094918416</v>
+        <v>0.04850652067521977</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,16 +6898,16 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C379" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D379" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E379">
-        <v>0.04713483094918416</v>
+        <v>0.04673543323089197</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,16 +6915,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C380" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D380" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E380">
-        <v>0.04713483094918416</v>
+        <v>0.04441057221267988</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6932,16 +6932,16 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C381" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D381" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E381">
-        <v>0.04713483094918416</v>
+        <v>0.03605532290926965</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6949,16 +6949,16 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C382" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D382" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E382">
-        <v>0.04146603711581671</v>
+        <v>0.03409866036840551</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6966,16 +6966,16 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C383" t="s">
         <v>23</v>
       </c>
       <c r="D383" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E383">
-        <v>0.0394695506852235</v>
+        <v>0.02892699370366818</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6983,16 +6983,16 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C384" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D384" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E384">
-        <v>0.03298616233140971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7000,16 +7000,16 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C385" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D385" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E385">
-        <v>0.03201927398059162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7017,16 +7017,16 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C386" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D386" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E386">
-        <v>0.02749628990903233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -7034,10 +7034,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C387" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D387" t="s">
         <v>27</v>
@@ -7051,7 +7051,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C388" t="s">
         <v>25</v>
@@ -7068,10 +7068,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C389" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D389" t="s">
         <v>27</v>
@@ -7088,7 +7088,7 @@
         <v>17</v>
       </c>
       <c r="C390" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D390" t="s">
         <v>27</v>
@@ -7102,7 +7102,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C391" t="s">
         <v>21</v>
@@ -7122,7 +7122,7 @@
         <v>8</v>
       </c>
       <c r="C392" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D392" t="s">
         <v>27</v>
@@ -7136,7 +7136,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C393" t="s">
         <v>21</v>
@@ -7153,10 +7153,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C394" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D394" t="s">
         <v>27</v>
@@ -7170,7 +7170,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C395" t="s">
         <v>25</v>
@@ -7187,7 +7187,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C396" t="s">
         <v>21</v>
@@ -7204,7 +7204,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C397" t="s">
         <v>25</v>
@@ -7221,10 +7221,10 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C398" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D398" t="s">
         <v>27</v>
@@ -7238,10 +7238,10 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C399" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D399" t="s">
         <v>27</v>
@@ -7255,10 +7255,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C400" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D400" t="s">
         <v>27</v>
@@ -7272,10 +7272,10 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C401" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D401" t="s">
         <v>27</v>
@@ -7289,10 +7289,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C402" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D402" t="s">
         <v>27</v>
@@ -7306,10 +7306,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C403" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D403" t="s">
         <v>27</v>
@@ -7326,7 +7326,7 @@
         <v>7</v>
       </c>
       <c r="C404" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D404" t="s">
         <v>27</v>
@@ -7340,10 +7340,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C405" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D405" t="s">
         <v>27</v>
@@ -7357,10 +7357,10 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C406" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D406" t="s">
         <v>27</v>
@@ -7391,10 +7391,10 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C408" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D408" t="s">
         <v>27</v>
@@ -7408,10 +7408,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C409" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D409" t="s">
         <v>27</v>
@@ -7425,10 +7425,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C410" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D410" t="s">
         <v>27</v>
@@ -7442,10 +7442,10 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C411" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D411" t="s">
         <v>27</v>
@@ -7459,10 +7459,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C412" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D412" t="s">
         <v>27</v>
@@ -7476,10 +7476,10 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C413" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D413" t="s">
         <v>27</v>
@@ -7493,10 +7493,10 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C414" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D414" t="s">
         <v>27</v>
@@ -7510,7 +7510,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C415" t="s">
         <v>23</v>
@@ -7527,7 +7527,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C416" t="s">
         <v>21</v>
@@ -7544,10 +7544,10 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C417" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D417" t="s">
         <v>27</v>
